--- a/data/trans_orig/IP1008-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1008-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F7C4105-9FA8-44AA-B55F-20783932195A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64569E0B-4F05-4AF7-96D8-2B00CCCE00D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{87E79D93-9A71-45DC-8EE7-C5CFA7C539E3}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{87534DC2-EA2E-491A-B9F7-A2402E0FE160}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,12 +67,93 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>98,38%</t>
   </si>
   <si>
@@ -100,9 +181,6 @@
     <t>99,34%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>1,62%</t>
   </si>
   <si>
@@ -130,49 +208,25 @@
     <t>2,55%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -190,60 +244,6 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>99,43%</t>
   </si>
   <si>
@@ -295,6 +295,54 @@
     <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
     <t>99,71%</t>
   </si>
   <si>
@@ -319,42 +367,45 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
     <t>98,32%</t>
   </si>
   <si>
@@ -364,63 +415,12 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
     <t>1,68%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
     <t>99,56%</t>
   </si>
   <si>
@@ -466,6 +466,54 @@
     <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
     <t>99,42%</t>
   </si>
   <si>
@@ -475,9 +523,6 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
     <t>99,86%</t>
   </si>
   <si>
@@ -490,40 +535,43 @@
     <t>3,05%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -541,9 +589,6 @@
     <t>99,28%</t>
   </si>
   <si>
-    <t>98,17%</t>
-  </si>
-  <si>
     <t>99,78%</t>
   </si>
   <si>
@@ -563,51 +608,6 @@
   </si>
   <si>
     <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -1041,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9A6B43-07ED-409C-92DE-82F7017C38CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C8D8CF-5434-49FF-9CB5-1BAB88E09501}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1159,10 +1159,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>317</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>208714</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1174,10 +1174,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>308</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>192680</v>
+        <v>21987</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1186,73 +1186,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>61</v>
+      </c>
+      <c r="N4" s="7">
+        <v>47431</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>625</v>
-      </c>
-      <c r="N4" s="7">
-        <v>401394</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3428</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>737</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2483</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>737</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5911</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1261,54 +1261,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1320,13 +1320,13 @@
         <v>126960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
@@ -1335,13 +1335,13 @@
         <v>116002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>366</v>
@@ -1350,19 +1350,19 @@
         <v>242962</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1371,13 +1371,13 @@
         <v>673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1401,13 +1401,13 @@
         <v>673</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1422,13 +1422,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1437,13 +1437,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1452,117 +1452,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="D10" s="7">
-        <v>207824</v>
+        <v>208714</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="7">
+        <v>308</v>
+      </c>
+      <c r="I10" s="7">
+        <v>192680</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="7">
+        <v>625</v>
+      </c>
+      <c r="N10" s="7">
+        <v>401394</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="7">
-        <v>274</v>
-      </c>
-      <c r="I10" s="7">
-        <v>209315</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="7">
-        <v>580</v>
-      </c>
-      <c r="N10" s="7">
-        <v>417139</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>3428</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>2483</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>5911</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,108 +1571,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>21987</v>
+        <v>137817</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>461</v>
       </c>
       <c r="N13" s="7">
-        <v>47431</v>
+        <v>287474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1681,43 +1681,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1726,108 +1726,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D16" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I16" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N16" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1836,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1851,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1866,13 +1866,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,49 +1881,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1976,13 @@
         <v>75</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>6</v>
@@ -2024,7 +2024,7 @@
         <v>82</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>83</v>
@@ -2042,13 +2042,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2057,13 +2057,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2072,13 +2072,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836D6E78-9A8E-45B0-81B3-71767E4271AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70600FCC-FEDE-4BD0-B27C-33D92B8AE19C}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2217,100 +2217,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>320</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221331</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22373</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="7">
-        <v>315</v>
-      </c>
-      <c r="I4" s="7">
-        <v>204049</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>54</v>
+      </c>
+      <c r="N4" s="7">
+        <v>47828</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="7">
-        <v>635</v>
-      </c>
-      <c r="N4" s="7">
-        <v>425379</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>647</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1349</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1997</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,54 +2319,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2378,13 +2378,13 @@
         <v>125630</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -2393,13 +2393,13 @@
         <v>113283</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>336</v>
@@ -2411,16 +2411,16 @@
         <v>72</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -2429,13 +2429,13 @@
         <v>2013</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2444,13 +2444,13 @@
         <v>735</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2462,10 +2462,10 @@
         <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2480,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2495,13 +2495,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2510,117 +2510,117 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="D10" s="7">
-        <v>207082</v>
+        <v>221331</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>315</v>
+      </c>
+      <c r="I10" s="7">
+        <v>204049</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="7">
-        <v>274</v>
-      </c>
-      <c r="I10" s="7">
-        <v>209513</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>635</v>
+      </c>
+      <c r="N10" s="7">
+        <v>425379</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="7">
-        <v>555</v>
-      </c>
-      <c r="N10" s="7">
-        <v>416595</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1349</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>787</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1997</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>787</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,153 +2629,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>240</v>
+      </c>
+      <c r="I13" s="7">
+        <v>154212</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22373</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>494</v>
       </c>
       <c r="N13" s="7">
-        <v>47828</v>
+        <v>319590</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,150 +2784,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="D16" s="7">
-        <v>165378</v>
+        <v>207082</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="I16" s="7">
-        <v>154212</v>
+        <v>209513</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="N16" s="7">
-        <v>319590</v>
+        <v>416595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>607</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>627</v>
+        <v>787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1234</v>
+        <v>787</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>126</v>
@@ -2939,49 +2939,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,7 +3040,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -3100,13 +3100,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3115,13 +3115,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3130,13 +3130,13 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8519A4-B921-45DB-972A-81911E91D5D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8DF29A-E959-4DDE-AB2E-21888165B6F5}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3275,55 +3275,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>330</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>204720</v>
+        <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>143</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>662</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>429079</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3332,43 +3332,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2527</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2527</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,54 +3377,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3436,13 +3436,13 @@
         <v>121777</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -3451,13 +3451,13 @@
         <v>110505</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>326</v>
@@ -3466,19 +3466,19 @@
         <v>232282</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -3487,13 +3487,13 @@
         <v>725</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3502,13 +3502,13 @@
         <v>675</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3517,13 +3517,13 @@
         <v>1400</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3538,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3553,13 +3553,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3568,117 +3568,117 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="D10" s="7">
-        <v>205100</v>
+        <v>224359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="I10" s="7">
-        <v>205087</v>
+        <v>204720</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
-        <v>567</v>
+        <v>662</v>
       </c>
       <c r="N10" s="7">
-        <v>410187</v>
+        <v>429079</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>636</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2333</v>
+        <v>2527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2969</v>
+        <v>2527</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,153 +3687,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>166085</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="I13" s="7">
-        <v>22527</v>
+        <v>155298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>505</v>
       </c>
       <c r="N13" s="7">
-        <v>48101</v>
+        <v>321383</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1287</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,153 +3842,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="D16" s="7">
-        <v>166085</v>
+        <v>205100</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>278</v>
+      </c>
+      <c r="I16" s="7">
+        <v>205087</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" s="7">
+        <v>567</v>
+      </c>
+      <c r="N16" s="7">
+        <v>410187</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="7">
-        <v>258</v>
-      </c>
-      <c r="I16" s="7">
-        <v>155298</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="7">
-        <v>505</v>
-      </c>
-      <c r="N16" s="7">
-        <v>321383</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>588</v>
+        <v>636</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>699</v>
+        <v>2333</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>187</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>1287</v>
+        <v>2969</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,49 +3997,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,7 +4077,7 @@
         <v>194</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>2114</v>
@@ -4092,13 +4092,13 @@
         <v>196</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -4125,7 +4125,7 @@
         <v>200</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>201</v>
@@ -4140,7 +4140,7 @@
         <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>203</v>
@@ -4158,13 +4158,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4173,13 +4173,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4188,13 +4188,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1008-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1008-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64569E0B-4F05-4AF7-96D8-2B00CCCE00D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E90B9AC7-A6C7-4233-8D8E-9E57542BE612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{87534DC2-EA2E-491A-B9F7-A2402E0FE160}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2CA73D29-045E-4CCB-8838-8BA598D8B52A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="215">
   <si>
     <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -85,46 +109,37 @@
     <t>96,76%</t>
   </si>
   <si>
-    <t>84,95%</t>
+    <t>81,53%</t>
   </si>
   <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>92,16%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>96,66%</t>
+    <t>97,1%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -133,31 +148,43 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>98,61%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>96,26%</t>
+    <t>96,16%</t>
   </si>
   <si>
     <t>99,36%</t>
@@ -166,7 +193,7 @@
     <t>98,73%</t>
   </si>
   <si>
-    <t>96,9%</t>
+    <t>97,12%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -175,481 +202,487 @@
     <t>98,55%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>99,03%</t>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
   </si>
 </sst>
 </file>
@@ -660,7 +693,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -756,39 +789,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -840,7 +873,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -951,13 +984,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -966,6 +992,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1030,19 +1063,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C8D8CF-5434-49FF-9CB5-1BAB88E09501}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF469D2-2643-402D-8E5F-B885F65339D7}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1159,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1174,34 +1227,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>21987</v>
+        <v>737</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>47431</v>
+        <v>737</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1210,10 +1263,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1225,34 +1278,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>737</v>
+        <v>21987</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N5" s="7">
-        <v>737</v>
+        <v>47431</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1267,13 +1320,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1282,13 +1335,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1297,13 +1350,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1314,49 +1367,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126960</v>
+        <v>673</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>116002</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>242962</v>
+        <v>673</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1365,49 +1418,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>673</v>
+        <v>126960</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>116002</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="N8" s="7">
-        <v>673</v>
+        <v>242962</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1422,13 +1475,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1437,13 +1490,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1452,13 +1505,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>317</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>208714</v>
+        <v>3428</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
@@ -1484,10 +1537,10 @@
         <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>308</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>192680</v>
+        <v>2483</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>41</v>
@@ -1499,10 +1552,10 @@
         <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>625</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>401394</v>
+        <v>5911</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>44</v>
@@ -1520,10 +1573,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>317</v>
       </c>
       <c r="D11" s="7">
-        <v>3428</v>
+        <v>208714</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>47</v>
@@ -1535,10 +1588,10 @@
         <v>49</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>308</v>
       </c>
       <c r="I11" s="7">
-        <v>2483</v>
+        <v>192680</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>50</v>
@@ -1550,10 +1603,10 @@
         <v>52</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>625</v>
       </c>
       <c r="N11" s="7">
-        <v>5911</v>
+        <v>401394</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>53</v>
@@ -1577,13 +1630,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1592,13 +1645,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1607,13 +1660,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,49 +1677,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>149657</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>287474</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1675,49 +1728,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>149657</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>287474</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1732,13 +1785,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1747,13 +1800,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1762,13 +1815,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,49 +1832,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>207824</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>209315</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>417139</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,49 +1883,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>207824</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>209315</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>417139</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,13 +1940,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1902,13 +1955,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1917,13 +1970,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,49 +1987,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1080</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>718599</v>
+        <v>4101</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3220</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="7">
-        <v>1013</v>
-      </c>
-      <c r="I19" s="7">
-        <v>677801</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>11</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7321</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1396400</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,49 +2038,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>1080</v>
       </c>
       <c r="D20" s="7">
-        <v>4101</v>
+        <v>718599</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1013</v>
+      </c>
+      <c r="I20" s="7">
+        <v>677801</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3220</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>2093</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1396400</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="7">
-        <v>11</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7321</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,13 +2095,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2057,13 +2110,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2072,13 +2125,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2099,8 +2157,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70600FCC-FEDE-4BD0-B27C-33D92B8AE19C}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F096804B-D609-40FC-A12D-FFDA1542784C}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2116,7 +2174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2217,49 +2275,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>47828</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,49 +2326,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>47828</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2383,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2340,13 +2398,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2355,13 +2413,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,49 +2430,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>125630</v>
+        <v>2013</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>735</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="7">
-        <v>158</v>
-      </c>
-      <c r="I7" s="7">
-        <v>113283</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2747</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>336</v>
-      </c>
-      <c r="N7" s="7">
-        <v>238914</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,10 +2481,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="D8" s="7">
-        <v>2013</v>
+        <v>125630</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>96</v>
@@ -2438,34 +2496,34 @@
         <v>98</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="I8" s="7">
-        <v>735</v>
+        <v>113283</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>336</v>
       </c>
       <c r="N8" s="7">
-        <v>2747</v>
+        <v>238914</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2538,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2495,13 +2553,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2510,13 +2568,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>320</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>221331</v>
+        <v>647</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1349</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7">
-        <v>315</v>
-      </c>
-      <c r="I10" s="7">
-        <v>204049</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7">
-        <v>635</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>425379</v>
+        <v>1997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,49 +2636,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="D11" s="7">
-        <v>647</v>
+        <v>221330</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>315</v>
       </c>
       <c r="I11" s="7">
-        <v>1349</v>
+        <v>204049</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>635</v>
       </c>
       <c r="N11" s="7">
-        <v>1997</v>
+        <v>425379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,16 +2690,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2650,13 +2708,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2665,13 +2723,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>165378</v>
+        <v>607</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>627</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7">
-        <v>240</v>
-      </c>
-      <c r="I13" s="7">
-        <v>154212</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="L13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1234</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
-        <v>494</v>
-      </c>
-      <c r="N13" s="7">
-        <v>319590</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,49 +2791,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="D14" s="7">
-        <v>607</v>
+        <v>165378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="I14" s="7">
-        <v>627</v>
+        <v>154212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>494</v>
       </c>
       <c r="N14" s="7">
-        <v>1234</v>
+        <v>319590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2848,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2805,13 +2863,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2820,13 +2878,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,49 +2895,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>207082</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>209513</v>
+        <v>787</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>787</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="7">
-        <v>555</v>
-      </c>
-      <c r="N16" s="7">
-        <v>416595</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,49 +2946,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>207082</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>787</v>
+        <v>209513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>555</v>
       </c>
       <c r="N17" s="7">
-        <v>787</v>
+        <v>416595</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +3003,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2960,13 +3018,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2975,13 +3033,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1061</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>744875</v>
+        <v>3267</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
-        <v>1013</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>703430</v>
+        <v>3498</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
-        <v>2074</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>1448305</v>
+        <v>6765</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,49 +3101,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>1061</v>
       </c>
       <c r="D20" s="7">
-        <v>3267</v>
+        <v>744875</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>1013</v>
       </c>
       <c r="I20" s="7">
-        <v>3498</v>
+        <v>703430</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
-        <v>10</v>
+        <v>2074</v>
       </c>
       <c r="N20" s="7">
-        <v>6765</v>
+        <v>1448305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3158,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3115,13 +3173,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3130,13 +3188,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3157,8 +3220,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8DF29A-E959-4DDE-AB2E-21888165B6F5}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171828CA-7D27-473E-8F90-D4AD54297279}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3174,7 +3237,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3275,49 +3338,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,49 +3389,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3446,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3398,13 +3461,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3413,13 +3476,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,49 +3493,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>121777</v>
+        <v>725</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>675</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
+      <c r="L7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1400</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="I7" s="7">
-        <v>110505</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>326</v>
-      </c>
-      <c r="N7" s="7">
-        <v>232282</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,49 +3544,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>725</v>
+        <v>121777</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="I8" s="7">
-        <v>675</v>
+        <v>110505</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="N8" s="7">
-        <v>1400</v>
+        <v>232282</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3601,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3553,13 +3616,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3568,13 +3631,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,49 +3648,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>224359</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
-        <v>330</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>204720</v>
+        <v>2527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
-        <v>662</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>429079</v>
+        <v>2527</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,49 +3699,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>224359</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="I11" s="7">
-        <v>2527</v>
+        <v>204720</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="7">
+        <v>662</v>
+      </c>
+      <c r="N11" s="7">
+        <v>429079</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2527</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3756,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3708,13 +3771,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3723,13 +3786,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,49 +3803,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>166085</v>
+        <v>588</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>699</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7">
-        <v>258</v>
-      </c>
-      <c r="I13" s="7">
-        <v>155298</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="L13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1287</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
-        <v>505</v>
-      </c>
-      <c r="N13" s="7">
-        <v>321383</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,49 +3854,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="D14" s="7">
-        <v>588</v>
+        <v>166085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="I14" s="7">
-        <v>699</v>
+        <v>155298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>505</v>
       </c>
       <c r="N14" s="7">
-        <v>1287</v>
+        <v>321383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3911,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3863,13 +3926,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3878,13 +3941,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,49 +3958,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>289</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>205100</v>
+        <v>636</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
-        <v>278</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>205087</v>
+        <v>2333</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
-        <v>567</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>410187</v>
+        <v>2969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,49 +4009,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="D17" s="7">
-        <v>636</v>
+        <v>205100</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="I17" s="7">
-        <v>2333</v>
+        <v>205087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>567</v>
       </c>
       <c r="N17" s="7">
-        <v>2969</v>
+        <v>410187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4066,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -4018,13 +4081,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -4033,13 +4096,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +4113,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1062</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>742895</v>
+        <v>1949</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
-        <v>1052</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>698136</v>
+        <v>6235</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
-        <v>2114</v>
+        <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>1441032</v>
+        <v>8183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,49 +4164,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1062</v>
       </c>
       <c r="D20" s="7">
-        <v>1949</v>
+        <v>742895</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="H20" s="7">
-        <v>9</v>
+        <v>1052</v>
       </c>
       <c r="I20" s="7">
-        <v>6235</v>
+        <v>698136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>2114</v>
       </c>
       <c r="N20" s="7">
-        <v>8183</v>
+        <v>1441032</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4221,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4173,13 +4236,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4188,13 +4251,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1008-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1008-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E90B9AC7-A6C7-4233-8D8E-9E57542BE612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B1FF6E6-C3B4-4146-AF82-F5BC673B183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2CA73D29-045E-4CCB-8838-8BA598D8B52A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{358DDC07-4B37-436F-996B-D11706529EDD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="207">
   <si>
     <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -85,13 +85,13 @@
     <t>3,24%</t>
   </si>
   <si>
-    <t>18,47%</t>
+    <t>14,89%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>7,84%</t>
+    <t>6,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,22 +109,22 @@
     <t>96,76%</t>
   </si>
   <si>
-    <t>81,53%</t>
+    <t>85,11%</t>
   </si>
   <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -139,7 +139,7 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,1%</t>
+    <t>97,54%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -151,7 +151,7 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,62%</t>
@@ -160,7 +160,7 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,84%</t>
+    <t>3,53%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -169,22 +169,22 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,88%</t>
+    <t>2,99%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>96,16%</t>
+    <t>96,47%</t>
   </si>
   <si>
     <t>99,36%</t>
@@ -193,7 +193,7 @@
     <t>98,73%</t>
   </si>
   <si>
-    <t>97,12%</t>
+    <t>97,01%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -202,13 +202,13 @@
     <t>98,55%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -247,442 +247,418 @@
     <t>0,57%</t>
   </si>
   <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>99,86%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,44%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,22%</t>
+    <t>98,23%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>97,73%</t>
+    <t>97,08%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>98,56%</t>
+    <t>98,72%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>99,0%</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF469D2-2643-402D-8E5F-B885F65339D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C06AF2-282A-49FD-A8C9-6BABB199AFA6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2157,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F096804B-D609-40FC-A12D-FFDA1542784C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905CE8B1-75E7-40A7-97BD-D86BCEBB090F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2466,10 +2442,10 @@
         <v>2747</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>95</v>
@@ -2517,13 +2493,13 @@
         <v>238914</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2606,13 +2582,13 @@
         <v>1349</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2624,10 +2600,10 @@
         <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2615,13 @@
         <v>320</v>
       </c>
       <c r="D11" s="7">
-        <v>221330</v>
+        <v>221331</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2657,10 +2633,10 @@
         <v>204049</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2675,10 +2651,10 @@
         <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,7 +2666,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -2746,13 +2722,13 @@
         <v>607</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2761,13 +2737,13 @@
         <v>627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2776,13 +2752,13 @@
         <v>1234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,10 +2773,10 @@
         <v>165378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2812,10 +2788,10 @@
         <v>154212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2827,10 +2803,10 @@
         <v>319590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2907,7 +2883,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2916,13 +2892,13 @@
         <v>787</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2931,13 +2907,13 @@
         <v>787</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,7 +2931,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -2967,10 +2943,10 @@
         <v>209513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -2982,10 +2958,10 @@
         <v>416595</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3056,13 +3032,13 @@
         <v>3267</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3071,13 +3047,13 @@
         <v>3498</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3086,13 +3062,13 @@
         <v>6765</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3083,13 @@
         <v>744875</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>1013</v>
@@ -3122,13 +3098,13 @@
         <v>703430</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>2074</v>
@@ -3137,13 +3113,13 @@
         <v>1448305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,7 +3196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171828CA-7D27-473E-8F90-D4AD54297279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FEB85B-9850-477D-B52F-9BF034F8B93D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3237,7 +3213,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3350,7 +3326,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3365,7 +3341,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3398,7 +3374,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3413,7 +3389,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3499,13 +3475,13 @@
         <v>725</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3514,13 +3490,13 @@
         <v>675</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3529,13 +3505,13 @@
         <v>1400</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,10 +3526,10 @@
         <v>121777</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3565,10 +3541,10 @@
         <v>110505</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3580,10 +3556,10 @@
         <v>232282</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3660,7 +3636,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3669,13 +3645,13 @@
         <v>2527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3684,13 +3660,13 @@
         <v>2527</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,7 +3684,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -3720,13 +3696,13 @@
         <v>204720</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -3735,13 +3711,13 @@
         <v>429079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3785,13 @@
         <v>588</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3824,13 +3800,13 @@
         <v>699</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3839,13 +3815,13 @@
         <v>1287</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,10 +3836,10 @@
         <v>166085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3875,10 +3851,10 @@
         <v>155298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3890,10 +3866,10 @@
         <v>321383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3964,13 +3940,13 @@
         <v>636</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3979,13 +3955,13 @@
         <v>2333</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3994,13 +3970,13 @@
         <v>2969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,10 +3991,10 @@
         <v>205100</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4030,13 +4006,13 @@
         <v>205087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>567</v>
@@ -4045,13 +4021,13 @@
         <v>410187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4095,13 @@
         <v>1949</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4134,13 +4110,13 @@
         <v>6235</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4149,13 +4125,13 @@
         <v>8183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4146,13 @@
         <v>742895</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>1052</v>
@@ -4185,13 +4161,13 @@
         <v>698136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="M20" s="7">
         <v>2114</v>
@@ -4200,13 +4176,13 @@
         <v>1441032</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1008-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1008-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B1FF6E6-C3B4-4146-AF82-F5BC673B183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C687BD43-8119-4BB0-B728-6A6E80467A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{358DDC07-4B37-436F-996B-D11706529EDD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5FEAE212-FDDB-46BE-AB85-C3951F9E6A3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="184">
   <si>
     <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,556 +67,496 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
     <t>99,86%</t>
   </si>
   <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>1,83%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>98,17%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>98,72%</t>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>1,87%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>98,45%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>98,13%</t>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -625,40 +565,31 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>99,27%</t>
+    <t>99,23%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>99,0%</t>
+    <t>99,06%</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1001,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C06AF2-282A-49FD-A8C9-6BABB199AFA6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B030C8-735D-49EB-B5C9-BFCB15FB0570}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1188,10 +1119,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1206,28 +1137,28 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>737</v>
+        <v>673</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>737</v>
+        <v>1410</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1239,10 +1170,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>137989</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1254,10 +1185,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>21987</v>
+        <v>152404</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1266,13 +1197,13 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>61</v>
+        <v>427</v>
       </c>
       <c r="N5" s="7">
-        <v>47431</v>
+        <v>290393</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1281,7 +1212,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1290,102 +1221,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>673</v>
+        <v>2483</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3428</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>673</v>
+        <v>5911</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,49 +1325,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="D8" s="7">
-        <v>126960</v>
+        <v>192680</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>174</v>
+        <v>317</v>
       </c>
       <c r="I8" s="7">
-        <v>116002</v>
+        <v>208714</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
-        <v>366</v>
+        <v>625</v>
       </c>
       <c r="N8" s="7">
-        <v>242962</v>
+        <v>401394</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,102 +1376,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>3428</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2483</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>5911</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,49 +1480,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>208714</v>
+        <v>137817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>192680</v>
+        <v>149657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>625</v>
+        <v>461</v>
       </c>
       <c r="N11" s="7">
-        <v>401394</v>
+        <v>287474</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,54 +1531,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1659,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1674,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1689,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,49 +1635,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7">
+        <v>306</v>
+      </c>
+      <c r="I14" s="7">
+        <v>207824</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="7">
-        <v>229</v>
-      </c>
-      <c r="I14" s="7">
-        <v>137817</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="7">
+        <v>580</v>
+      </c>
+      <c r="N14" s="7">
+        <v>417139</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="7">
-        <v>461</v>
-      </c>
-      <c r="N14" s="7">
-        <v>287474</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,102 +1686,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>3220</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4101</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="7">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="N16" s="7">
+        <v>7321</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,49 +1790,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>306</v>
+        <v>1013</v>
       </c>
       <c r="D17" s="7">
-        <v>207824</v>
+        <v>677801</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1080</v>
       </c>
       <c r="I17" s="7">
-        <v>209315</v>
+        <v>718599</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
-        <v>580</v>
+        <v>2093</v>
       </c>
       <c r="N17" s="7">
-        <v>417139</v>
+        <v>1396400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,217 +1841,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4101</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3220</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M19" s="7">
-        <v>11</v>
-      </c>
-      <c r="N19" s="7">
-        <v>7321</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1080</v>
-      </c>
-      <c r="D20" s="7">
-        <v>718599</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1013</v>
-      </c>
-      <c r="I20" s="7">
-        <v>677801</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1396400</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2133,8 +1908,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905CE8B1-75E7-40A7-97BD-D86BCEBB090F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6ADE4D-C91E-426C-BE89-851F1E1D04AF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2150,7 +1925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2251,49 +2026,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2013</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2747</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,13 +2077,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>135656</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>87</v>
@@ -2317,34 +2092,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>22373</v>
+        <v>151085</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>390</v>
       </c>
       <c r="N5" s="7">
-        <v>47828</v>
+        <v>286742</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,102 +2128,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2013</v>
+        <v>1349</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>735</v>
+        <v>647</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2747</v>
+        <v>1997</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,49 +2232,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="D8" s="7">
-        <v>125630</v>
+        <v>204049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
+        <v>320</v>
+      </c>
+      <c r="I8" s="7">
+        <v>221330</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="H8" s="7">
-        <v>158</v>
-      </c>
-      <c r="I8" s="7">
-        <v>113283</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>336</v>
+        <v>635</v>
       </c>
       <c r="N8" s="7">
-        <v>238914</v>
+        <v>425379</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,54 +2283,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2564,46 +2339,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>607</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="7">
-        <v>1349</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
       <c r="N10" s="7">
-        <v>1997</v>
+        <v>1234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,49 +2387,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="D11" s="7">
-        <v>221331</v>
+        <v>154212</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="I11" s="7">
-        <v>204049</v>
+        <v>165378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>635</v>
+        <v>494</v>
       </c>
       <c r="N11" s="7">
-        <v>425379</v>
+        <v>319590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,54 +2438,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2719,43 +2494,43 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>607</v>
+        <v>787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="7">
         <v>1</v>
       </c>
-      <c r="I13" s="7">
-        <v>627</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
       <c r="N13" s="7">
-        <v>1234</v>
+        <v>787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>115</v>
@@ -2767,49 +2542,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>165378</v>
+        <v>209513</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>281</v>
+      </c>
+      <c r="I14" s="7">
+        <v>207082</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>240</v>
-      </c>
-      <c r="I14" s="7">
-        <v>154212</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="7">
+        <v>555</v>
+      </c>
+      <c r="N14" s="7">
+        <v>416595</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="7">
-        <v>494</v>
-      </c>
-      <c r="N14" s="7">
-        <v>319590</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,102 +2593,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>3498</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3267</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6765</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>787</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>787</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,40 +2697,40 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>281</v>
+        <v>1013</v>
       </c>
       <c r="D17" s="7">
-        <v>207082</v>
+        <v>703430</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1061</v>
       </c>
       <c r="I17" s="7">
-        <v>209513</v>
+        <v>744875</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
-        <v>555</v>
+        <v>2074</v>
       </c>
       <c r="N17" s="7">
-        <v>416595</v>
+        <v>1448305</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>128</v>
@@ -2964,7 +2739,7 @@
         <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,217 +2748,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3267</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3498</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M19" s="7">
-        <v>10</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6765</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1061</v>
-      </c>
-      <c r="D20" s="7">
-        <v>744875</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1013</v>
-      </c>
-      <c r="I20" s="7">
-        <v>703430</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2074</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1448305</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
+      <c r="A19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3196,8 +2815,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FEB85B-9850-477D-B52F-9BF034F8B93D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15970FC6-26FD-4652-BEC1-48A7CCB87530}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3213,7 +2832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3314,49 +2933,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,46 +2984,46 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133032</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>147351</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>380</v>
       </c>
       <c r="N5" s="7">
-        <v>48101</v>
+        <v>280383</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3416,102 +3035,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>725</v>
+        <v>2527</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1400</v>
+        <v>2527</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,49 +3139,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>164</v>
+        <v>330</v>
       </c>
       <c r="D8" s="7">
-        <v>121777</v>
+        <v>204720</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="H8" s="7">
-        <v>162</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>110505</v>
+        <v>224359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>326</v>
+        <v>662</v>
       </c>
       <c r="N8" s="7">
-        <v>232282</v>
+        <v>429079</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,102 +3190,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>2527</v>
+        <v>588</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2527</v>
+        <v>1287</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,49 +3294,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>224359</v>
+        <v>155298</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="I11" s="7">
-        <v>204720</v>
+        <v>166085</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>662</v>
+        <v>505</v>
       </c>
       <c r="N11" s="7">
-        <v>429079</v>
+        <v>321383</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,102 +3345,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>588</v>
+        <v>2333</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>699</v>
+        <v>636</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1287</v>
+        <v>2969</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,49 +3449,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="D14" s="7">
-        <v>166085</v>
+        <v>205087</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="I14" s="7">
-        <v>155298</v>
+        <v>205100</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="N14" s="7">
-        <v>321383</v>
+        <v>410187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,102 +3500,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>636</v>
+        <v>6235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>2333</v>
+        <v>1949</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>2969</v>
+        <v>8183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,49 +3604,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>289</v>
+        <v>1052</v>
       </c>
       <c r="D17" s="7">
-        <v>205100</v>
+        <v>698136</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>278</v>
+        <v>1062</v>
       </c>
       <c r="I17" s="7">
-        <v>205087</v>
+        <v>742895</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
-        <v>567</v>
+        <v>2114</v>
       </c>
       <c r="N17" s="7">
-        <v>410187</v>
+        <v>1441032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,217 +3655,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1949</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6235</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" s="7">
-        <v>12</v>
-      </c>
-      <c r="N19" s="7">
-        <v>8183</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1062</v>
-      </c>
-      <c r="D20" s="7">
-        <v>742895</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1052</v>
-      </c>
-      <c r="I20" s="7">
-        <v>698136</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2114</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1441032</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
+      <c r="A19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
